--- a/datosbbdd.xlsx
+++ b/datosbbdd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barquinj/GitHub/Supermercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628E122-87C9-0B47-8EA8-9DBE4ADFE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3E107-631B-8549-AC55-F6D3956CD6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="19200" windowHeight="17440" xr2:uid="{D4BCA29D-62AB-BF46-8F66-7661366D6588}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="25520" windowHeight="17440" xr2:uid="{D4BCA29D-62AB-BF46-8F66-7661366D6588}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -201,12 +201,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -274,22 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -297,6 +297,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -612,499 +625,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD8D88-C8AF-CA4F-9C55-DBD3A2D77DE5}">
-  <dimension ref="A6:L33"/>
+  <dimension ref="B5:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:L25"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I6" s="4" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="L5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1">
+        <v>46</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L9" s="14">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="14">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1">
+        <v>94</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L11" s="14">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="L14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6">
+        <v>44372</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6">
+        <v>44375</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>81.14</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.7104166666666667</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>80</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6">
+        <v>44255</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6">
+        <v>44547</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6">
+        <v>44220.84375</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>19.95</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="14">
+        <v>5</v>
+      </c>
+      <c r="M20" s="7">
         <v>20</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N20" s="7">
+        <v>5</v>
+      </c>
+      <c r="O20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L21" s="14">
+        <v>6</v>
+      </c>
+      <c r="M21" s="7">
+        <v>20</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4</v>
+      </c>
+      <c r="O21" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L22" s="14">
+        <v>7</v>
+      </c>
+      <c r="M22" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2">
-        <v>46</v>
-      </c>
-      <c r="L9" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2">
-        <v>12</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2">
-        <v>94</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="2">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="10">
-        <v>44372</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="10">
-        <v>44375</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>81.14</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.7104166666666667</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="10">
-        <v>44255</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="10">
-        <v>44547</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>34</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.77569444444444446</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="10">
-        <v>44220.84375</v>
-      </c>
-      <c r="E22" s="12">
-        <v>5</v>
-      </c>
-      <c r="F22" s="12">
-        <v>19.95</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>7</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2">
-        <v>80</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="2">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="2">
-        <v>4</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="11">
-        <v>5</v>
-      </c>
-      <c r="J31" s="11">
-        <v>20</v>
-      </c>
-      <c r="K31" s="11">
-        <v>5</v>
-      </c>
-      <c r="L31" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="11">
-        <v>6</v>
-      </c>
-      <c r="J32" s="11">
-        <v>20</v>
-      </c>
-      <c r="K32" s="11">
-        <v>4</v>
-      </c>
-      <c r="L32" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="11">
-        <v>7</v>
-      </c>
-      <c r="J33" s="11">
-        <v>21</v>
-      </c>
-      <c r="K33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" s="11">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="L14:O14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{8B766642-64D6-3C4E-AD56-79E5EBEF841D}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{D8E952B4-68C2-F44F-80C0-4F01625DF2D9}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{8B766642-64D6-3C4E-AD56-79E5EBEF841D}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{D8E952B4-68C2-F44F-80C0-4F01625DF2D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
